--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N2">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O2">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P2">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q2">
-        <v>35732.21605749425</v>
+        <v>31451.44656555989</v>
       </c>
       <c r="R2">
-        <v>321589.9445174482</v>
+        <v>283063.019090039</v>
       </c>
       <c r="S2">
-        <v>0.008080332946995377</v>
+        <v>0.01631550416256366</v>
       </c>
       <c r="T2">
-        <v>0.008080332946995379</v>
+        <v>0.01631550416256366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.755353</v>
       </c>
       <c r="O3">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P3">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q3">
-        <v>52.63717924711744</v>
+        <v>53.79651656886989</v>
       </c>
       <c r="R3">
-        <v>473.734613224057</v>
+        <v>484.168649119829</v>
       </c>
       <c r="S3">
-        <v>1.19031501719071E-05</v>
+        <v>2.79070562996598E-05</v>
       </c>
       <c r="T3">
-        <v>1.190315017190711E-05</v>
+        <v>2.79070562996598E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N4">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O4">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P4">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q4">
-        <v>42834.12366451405</v>
+        <v>3870.902694547965</v>
       </c>
       <c r="R4">
-        <v>385507.1129806264</v>
+        <v>34838.12425093169</v>
       </c>
       <c r="S4">
-        <v>0.009686328442242122</v>
+        <v>0.002008038927371096</v>
       </c>
       <c r="T4">
-        <v>0.009686328442242126</v>
+        <v>0.002008038927371096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N5">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O5">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P5">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q5">
-        <v>682.9236749287048</v>
+        <v>363.9716195226041</v>
       </c>
       <c r="R5">
-        <v>6146.313074358344</v>
+        <v>3275.744575703437</v>
       </c>
       <c r="S5">
-        <v>0.000154433485511521</v>
+        <v>0.0001888110443822561</v>
       </c>
       <c r="T5">
-        <v>0.000154433485511521</v>
+        <v>0.0001888110443822561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N6">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O6">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P6">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q6">
-        <v>20866.96372223119</v>
+        <v>8742.547451841994</v>
       </c>
       <c r="R6">
-        <v>187802.6735000807</v>
+        <v>78682.92706657793</v>
       </c>
       <c r="S6">
-        <v>0.004718767349811162</v>
+        <v>0.004535214907988737</v>
       </c>
       <c r="T6">
-        <v>0.004718767349811165</v>
+        <v>0.004535214907988737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N7">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O7">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P7">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q7">
-        <v>1532230.790410224</v>
+        <v>1319603.053601632</v>
       </c>
       <c r="R7">
-        <v>13790077.11369202</v>
+        <v>11876427.48241469</v>
       </c>
       <c r="S7">
-        <v>0.346492221983411</v>
+        <v>0.6845468639762032</v>
       </c>
       <c r="T7">
-        <v>0.3464922219834112</v>
+        <v>0.6845468639762032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.755353</v>
       </c>
       <c r="O8">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P8">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q8">
         <v>2257.131397420281</v>
@@ -948,10 +948,10 @@
         <v>20314.18257678253</v>
       </c>
       <c r="S8">
-        <v>0.0005104181942403658</v>
+        <v>0.001170891667360997</v>
       </c>
       <c r="T8">
-        <v>0.000510418194240366</v>
+        <v>0.001170891667360997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N9">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O9">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P9">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q9">
-        <v>1836767.220185954</v>
+        <v>162410.8132919307</v>
       </c>
       <c r="R9">
-        <v>16530904.98167359</v>
+        <v>1461697.319627376</v>
       </c>
       <c r="S9">
-        <v>0.4153588084587012</v>
+        <v>0.08425095153529302</v>
       </c>
       <c r="T9">
-        <v>0.4153588084587014</v>
+        <v>0.08425095153529301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N10">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O10">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P10">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q10">
-        <v>29284.40487828069</v>
+        <v>15271.09602240992</v>
       </c>
       <c r="R10">
-        <v>263559.6439045263</v>
+        <v>137439.8642016893</v>
       </c>
       <c r="S10">
-        <v>0.006622252064926011</v>
+        <v>0.007921913232231742</v>
       </c>
       <c r="T10">
-        <v>0.006622252064926013</v>
+        <v>0.007921913232231742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N11">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O11">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P11">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q11">
-        <v>894794.8894669788</v>
+        <v>366809.5929915295</v>
       </c>
       <c r="R11">
-        <v>8053154.00520281</v>
+        <v>3301286.336923765</v>
       </c>
       <c r="S11">
-        <v>0.202345150228842</v>
+        <v>0.1902832490978319</v>
       </c>
       <c r="T11">
-        <v>0.2023451502288421</v>
+        <v>0.1902832490978319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N12">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O12">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P12">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q12">
-        <v>53.31287497878311</v>
+        <v>629.6800425362489</v>
       </c>
       <c r="R12">
-        <v>479.815874809048</v>
+        <v>5667.120382826241</v>
       </c>
       <c r="S12">
-        <v>1.205594916075059E-05</v>
+        <v>0.0003266478485709214</v>
       </c>
       <c r="T12">
-        <v>1.20559491607506E-05</v>
+        <v>0.0003266478485709215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.755353</v>
       </c>
       <c r="O13">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P13">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q13">
-        <v>0.07853527337688888</v>
+        <v>1.077044032641778</v>
       </c>
       <c r="R13">
-        <v>0.706817460392</v>
+        <v>9.693396293776001</v>
       </c>
       <c r="S13">
-        <v>1.77596361767064E-08</v>
+        <v>5.587188608702539E-07</v>
       </c>
       <c r="T13">
-        <v>1.775963617670641E-08</v>
+        <v>5.58718860870254E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N14">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O14">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P14">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q14">
-        <v>63.90900234336355</v>
+        <v>77.49818973432178</v>
       </c>
       <c r="R14">
-        <v>575.181021090272</v>
+        <v>697.4837076088961</v>
       </c>
       <c r="S14">
-        <v>1.445211280525596E-05</v>
+        <v>4.020234918498309E-05</v>
       </c>
       <c r="T14">
-        <v>1.445211280525597E-05</v>
+        <v>4.020234918498309E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N15">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O15">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P15">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q15">
-        <v>1.018929932667556</v>
+        <v>7.286967370014222</v>
       </c>
       <c r="R15">
-        <v>9.170369394008002</v>
+        <v>65.582706330128</v>
       </c>
       <c r="S15">
-        <v>2.304165264299815E-07</v>
+        <v>3.780129674166425E-06</v>
       </c>
       <c r="T15">
-        <v>2.304165264299815E-07</v>
+        <v>3.780129674166425E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N16">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O16">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P16">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q16">
-        <v>31.13374850079556</v>
+        <v>175.0319381932391</v>
       </c>
       <c r="R16">
-        <v>280.20373650716</v>
+        <v>1575.287443739152</v>
       </c>
       <c r="S16">
-        <v>7.040454848074931E-06</v>
+        <v>9.079818666593474E-05</v>
       </c>
       <c r="T16">
-        <v>7.040454848074934E-06</v>
+        <v>9.079818666593475E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N17">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O17">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P17">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q17">
-        <v>9341.259642917439</v>
+        <v>10645.30877379917</v>
       </c>
       <c r="R17">
-        <v>84071.33678625694</v>
+        <v>95807.7789641925</v>
       </c>
       <c r="S17">
-        <v>0.002112393139503399</v>
+        <v>0.005522276352175279</v>
       </c>
       <c r="T17">
-        <v>0.0021123931395034</v>
+        <v>0.005522276352175279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.755353</v>
       </c>
       <c r="O18">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P18">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q18">
-        <v>13.76062311464122</v>
+        <v>18.20840032386689</v>
       </c>
       <c r="R18">
-        <v>123.845608031771</v>
+        <v>163.875602914802</v>
       </c>
       <c r="S18">
-        <v>3.111769394473401E-06</v>
+        <v>9.445646026436981E-06</v>
       </c>
       <c r="T18">
-        <v>3.111769394473402E-06</v>
+        <v>9.445646026436981E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N19">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O19">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P19">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q19">
-        <v>11197.86889464809</v>
+        <v>1310.176761850977</v>
       </c>
       <c r="R19">
-        <v>100780.8200518328</v>
+        <v>11791.59085665879</v>
       </c>
       <c r="S19">
-        <v>0.00253223894146309</v>
+        <v>0.0006796569552728064</v>
       </c>
       <c r="T19">
-        <v>0.002532238941463092</v>
+        <v>0.0006796569552728063</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N20">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O20">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P20">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q20">
-        <v>178.5326539372699</v>
+        <v>123.1927525699451</v>
       </c>
       <c r="R20">
-        <v>1606.793885435429</v>
+        <v>1108.734773129506</v>
       </c>
       <c r="S20">
-        <v>4.037262294067214E-05</v>
+        <v>6.39064999176719E-05</v>
       </c>
       <c r="T20">
-        <v>4.037262294067216E-05</v>
+        <v>6.39064999176719E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N21">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O21">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P21">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q21">
-        <v>5455.125586811134</v>
+        <v>2959.072705939062</v>
       </c>
       <c r="R21">
-        <v>49096.1302813002</v>
+        <v>26631.65435345155</v>
       </c>
       <c r="S21">
-        <v>0.001233599140287931</v>
+        <v>0.001535025199888381</v>
       </c>
       <c r="T21">
-        <v>0.001233599140287931</v>
+        <v>0.001535025199888381</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H22">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I22">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J22">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N22">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O22">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P22">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q22">
-        <v>100.7544541850757</v>
+        <v>651.9910588578134</v>
       </c>
       <c r="R22">
-        <v>906.790087665681</v>
+        <v>5867.919529720321</v>
       </c>
       <c r="S22">
-        <v>2.278418820702985E-05</v>
+        <v>0.0003382217352888734</v>
       </c>
       <c r="T22">
-        <v>2.278418820702986E-05</v>
+        <v>0.0003382217352888734</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H23">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I23">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J23">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.755353</v>
       </c>
       <c r="O23">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P23">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q23">
-        <v>0.1484215324443333</v>
+        <v>1.115206187018667</v>
       </c>
       <c r="R23">
-        <v>1.335793791999</v>
+        <v>10.036855683168</v>
       </c>
       <c r="S23">
-        <v>3.356342066005047E-08</v>
+        <v>5.785155588469482E-07</v>
       </c>
       <c r="T23">
-        <v>3.356342066005049E-08</v>
+        <v>5.785155588469482E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H24">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I24">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J24">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N24">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O24">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P24">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q24">
-        <v>120.7797675736093</v>
+        <v>80.24412935325867</v>
       </c>
       <c r="R24">
-        <v>1087.017908162484</v>
+        <v>722.1971641793281</v>
       </c>
       <c r="S24">
-        <v>2.731262829277535E-05</v>
+        <v>4.162681114699573E-05</v>
       </c>
       <c r="T24">
-        <v>2.731262829277537E-05</v>
+        <v>4.162681114699573E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H25">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I25">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J25">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N25">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O25">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P25">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q25">
-        <v>1.925646089422333</v>
+        <v>7.545161431989333</v>
       </c>
       <c r="R25">
-        <v>17.330814804801</v>
+        <v>67.906452887904</v>
       </c>
       <c r="S25">
-        <v>4.35457501868224E-07</v>
+        <v>3.914068387736345E-06</v>
       </c>
       <c r="T25">
-        <v>4.354575018682242E-07</v>
+        <v>3.914068387736345E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H26">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I26">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J26">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N26">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O26">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P26">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q26">
-        <v>58.83876714923832</v>
+        <v>181.2337234905707</v>
       </c>
       <c r="R26">
-        <v>529.548904343145</v>
+        <v>1631.103511415136</v>
       </c>
       <c r="S26">
-        <v>1.330555115841646E-05</v>
+        <v>9.401537585381583E-05</v>
       </c>
       <c r="T26">
-        <v>1.330555115841646E-05</v>
+        <v>9.401537585381583E-05</v>
       </c>
     </row>
   </sheetData>
